--- a/data/trans_dic/P16A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,45</t>
+          <t>0,9; 7,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 14,46</t>
+          <t>3,24; 13,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 13,46</t>
+          <t>3,1; 14,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 13,0</t>
+          <t>3,13; 12,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,64; 14,39</t>
+          <t>4,78; 15,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 21,42</t>
+          <t>8,5; 22,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,3; 29,37</t>
+          <t>14,33; 29,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,0; 20,14</t>
+          <t>10,66; 19,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 9,26</t>
+          <t>3,14; 9,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 15,55</t>
+          <t>7,02; 15,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,84; 18,94</t>
+          <t>9,72; 19,2</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 14,96</t>
+          <t>8,31; 14,31</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,95</t>
+          <t>4,27; 7,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,46</t>
+          <t>4,48; 8,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,88</t>
+          <t>3,46; 7,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,89; 14,39</t>
+          <t>9,1; 14,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 11,9</t>
+          <t>7,29; 12,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,22; 19,41</t>
+          <t>13,26; 19,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,67; 20,3</t>
+          <t>14,14; 20,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,09; 20,69</t>
+          <t>14,95; 20,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,29</t>
+          <t>6,24; 9,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,49; 13,08</t>
+          <t>9,37; 13,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,26; 13,06</t>
+          <t>9,23; 12,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,88; 16,59</t>
+          <t>13,03; 16,66</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 6,4</t>
+          <t>3,61; 6,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 8,57</t>
+          <t>5,4; 8,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,35</t>
+          <t>4,41; 7,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,27</t>
+          <t>5,08; 8,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,6; 13,78</t>
+          <t>9,56; 13,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,55; 18,24</t>
+          <t>13,33; 18,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,5; 15,89</t>
+          <t>11,38; 15,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,21; 19,93</t>
+          <t>16,02; 20,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,0; 9,55</t>
+          <t>6,94; 9,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,77; 12,71</t>
+          <t>9,99; 12,83</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,32; 11,18</t>
+          <t>8,41; 11,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,81; 13,73</t>
+          <t>11,08; 13,8</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,98</t>
+          <t>2,93; 6,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,78</t>
+          <t>3,7; 7,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,29</t>
+          <t>4,6; 8,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 11,08</t>
+          <t>6,88; 11,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,04; 14,88</t>
+          <t>9,95; 14,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,47; 17,76</t>
+          <t>12,31; 17,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,6; 16,81</t>
+          <t>11,36; 16,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,88; 17,46</t>
+          <t>9,46; 17,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 9,86</t>
+          <t>6,79; 9,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,7; 12,07</t>
+          <t>8,68; 11,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,54; 11,81</t>
+          <t>8,66; 11,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,22; 13,67</t>
+          <t>9,62; 13,96</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 6,48</t>
+          <t>3,81; 6,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,94; 9,81</t>
+          <t>5,98; 9,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,54</t>
+          <t>5,91; 9,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 12,36</t>
+          <t>8,45; 12,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,57; 13,51</t>
+          <t>9,49; 13,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,87; 18,27</t>
+          <t>13,78; 18,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,85; 18,74</t>
+          <t>13,79; 19,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,93; 21,71</t>
+          <t>16,88; 21,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 9,78</t>
+          <t>7,21; 9,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,59; 13,55</t>
+          <t>10,56; 13,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,68; 13,6</t>
+          <t>10,69; 13,77</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,51; 16,57</t>
+          <t>13,41; 16,7</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,14; 5,72</t>
+          <t>4,18; 5,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,7; 7,59</t>
+          <t>5,76; 7,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,51; 7,17</t>
+          <t>5,45; 7,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,88; 9,91</t>
+          <t>7,83; 9,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,14; 12,2</t>
+          <t>10,18; 12,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,5; 16,94</t>
+          <t>14,44; 16,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,11; 16,54</t>
+          <t>13,97; 16,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,75; 18,69</t>
+          <t>15,68; 18,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,44; 8,81</t>
+          <t>7,41; 8,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,42; 11,95</t>
+          <t>10,36; 11,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,04; 11,57</t>
+          <t>10,06; 11,63</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,46; 14,21</t>
+          <t>12,49; 14,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,41</t>
+          <t>0,9; 7,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 13,73</t>
+          <t>3,21; 14,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 14,1</t>
+          <t>3,11; 13,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 15,26</t>
+          <t>4,66; 14,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,5; 22,15</t>
+          <t>9,25; 22,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,33; 29,02</t>
+          <t>14,24; 29,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 9,14</t>
+          <t>3,09; 9,06</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,02; 15,47</t>
+          <t>6,84; 15,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 19,2</t>
+          <t>10,05; 19,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 7,89</t>
+          <t>4,24; 8,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 8,54</t>
+          <t>4,36; 8,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 7,13</t>
+          <t>3,28; 6,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 12,18</t>
+          <t>7,3; 11,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,26; 19,57</t>
+          <t>13,36; 19,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,14; 20,22</t>
+          <t>14,0; 20,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 9,37</t>
+          <t>6,3; 9,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,37; 13,28</t>
+          <t>9,41; 13,15</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 12,96</t>
+          <t>9,28; 13,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,41</t>
+          <t>3,6; 6,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,4; 8,85</t>
+          <t>5,23; 8,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,45</t>
+          <t>4,29; 7,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,56; 13,73</t>
+          <t>9,49; 13,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,33; 18,03</t>
+          <t>13,33; 18,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,38; 15,73</t>
+          <t>11,4; 15,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 9,63</t>
+          <t>6,99; 9,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,99; 12,83</t>
+          <t>9,84; 12,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,41; 11,0</t>
+          <t>8,5; 10,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,93; 6,16</t>
+          <t>2,86; 6,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,62</t>
+          <t>3,72; 7,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,07</t>
+          <t>4,6; 8,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,95; 14,87</t>
+          <t>9,64; 14,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,31; 17,36</t>
+          <t>12,21; 17,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,36; 16,63</t>
+          <t>11,63; 16,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 9,77</t>
+          <t>6,91; 9,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,68; 11,96</t>
+          <t>8,66; 11,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 11,97</t>
+          <t>8,83; 12,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,45</t>
+          <t>3,81; 6,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,98; 9,73</t>
+          <t>5,91; 9,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,58</t>
+          <t>6,05; 9,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,49; 13,6</t>
+          <t>9,66; 13,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,78; 18,46</t>
+          <t>13,69; 18,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,79; 19,17</t>
+          <t>13,76; 18,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 9,79</t>
+          <t>7,27; 9,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,56; 13,53</t>
+          <t>10,47; 13,45</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,69; 13,77</t>
+          <t>10,55; 13,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4,18; 5,71</t>
+          <t>4,14; 5,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,76; 7,58</t>
+          <t>5,77; 7,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,45; 7,12</t>
+          <t>5,42; 7,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,18; 12,29</t>
+          <t>10,09; 12,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,44; 16,81</t>
+          <t>14,28; 16,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,97; 16,36</t>
+          <t>13,9; 16,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,41; 8,76</t>
+          <t>7,39; 8,7</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,36; 11,93</t>
+          <t>10,54; 12,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,06; 11,63</t>
+          <t>10,07; 11,6</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P16A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,63</t>
+          <t>0,9; 7,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 14,14</t>
+          <t>3,07; 14,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 13,53</t>
+          <t>3,28; 13,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 12,79</t>
+          <t>3,13; 13,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 14,27</t>
+          <t>4,64; 14,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,25; 22,36</t>
+          <t>8,69; 21,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,24; 29,7</t>
+          <t>14,3; 29,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,66; 19,71</t>
+          <t>11,0; 20,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,06</t>
+          <t>3,33; 9,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 15,33</t>
+          <t>6,94; 15,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,05; 19,62</t>
+          <t>9,84; 18,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,31; 14,31</t>
+          <t>8,56; 14,96</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 8,07</t>
+          <t>4,26; 7,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,5</t>
+          <t>4,58; 8,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,82</t>
+          <t>3,34; 6,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,1; 14,39</t>
+          <t>8,89; 14,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 11,82</t>
+          <t>7,29; 11,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,36; 19,64</t>
+          <t>13,22; 19,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,0; 20,6</t>
+          <t>13,67; 20,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,95; 20,63</t>
+          <t>15,09; 20,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,36</t>
+          <t>6,28; 9,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,41; 13,15</t>
+          <t>9,49; 13,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,28; 13,01</t>
+          <t>9,26; 13,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,03; 16,66</t>
+          <t>12,88; 16,59</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,66</t>
+          <t>3,55; 6,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 8,61</t>
+          <t>5,22; 8,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 7,52</t>
+          <t>4,34; 7,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,27</t>
+          <t>5,11; 8,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,49; 13,97</t>
+          <t>9,6; 13,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,33; 18,02</t>
+          <t>13,55; 18,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,4; 15,98</t>
+          <t>11,5; 15,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,02; 20,17</t>
+          <t>16,21; 19,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,99; 9,54</t>
+          <t>7,0; 9,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,84; 12,78</t>
+          <t>9,77; 12,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,5; 10,95</t>
+          <t>8,32; 11,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,08; 13,8</t>
+          <t>10,81; 13,73</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,12</t>
+          <t>2,92; 5,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,58</t>
+          <t>3,74; 7,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,05</t>
+          <t>4,71; 8,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,88; 11,28</t>
+          <t>6,81; 11,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,64; 14,54</t>
+          <t>10,04; 14,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,21; 17,78</t>
+          <t>12,47; 17,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,63; 16,82</t>
+          <t>11,6; 16,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,46; 17,49</t>
+          <t>9,88; 17,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 9,77</t>
+          <t>6,85; 9,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 11,83</t>
+          <t>8,7; 12,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,02</t>
+          <t>8,54; 11,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,62; 13,96</t>
+          <t>9,22; 13,67</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,48</t>
+          <t>3,78; 6,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,87</t>
+          <t>5,94; 9,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,05; 9,51</t>
+          <t>5,96; 9,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,45; 12,39</t>
+          <t>8,51; 12,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,66; 13,48</t>
+          <t>9,57; 13,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,69; 18,31</t>
+          <t>13,87; 18,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,76; 18,72</t>
+          <t>13,85; 18,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,88; 21,54</t>
+          <t>16,93; 21,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 9,73</t>
+          <t>7,18; 9,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,47; 13,45</t>
+          <t>10,59; 13,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,55; 13,78</t>
+          <t>10,68; 13,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,41; 16,7</t>
+          <t>13,51; 16,57</t>
         </is>
       </c>
     </row>
@@ -1429,57 +1429,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,77; 7,57</t>
+          <t>5,7; 7,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,42; 7,12</t>
+          <t>5,51; 7,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,83; 9,94</t>
+          <t>7,88; 9,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,09; 12,25</t>
+          <t>10,14; 12,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,28; 16,84</t>
+          <t>14,5; 16,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,9; 16,52</t>
+          <t>14,11; 16,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,68; 18,7</t>
+          <t>15,75; 18,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,39; 8,7</t>
+          <t>7,44; 8,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,54; 12,0</t>
+          <t>10,42; 11,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,07; 11,6</t>
+          <t>10,04; 11,57</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,49; 14,32</t>
+          <t>12,46; 14,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>13,62%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,45</t>
+          <t>3,92; 7,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 14,46</t>
+          <t>4,82; 8,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 13,46</t>
+          <t>3,78; 7,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 13,0</t>
+          <t>8,04; 12,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,64; 14,39</t>
+          <t>7,19; 11,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 21,42</t>
+          <t>13,04; 18,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,3; 29,37</t>
+          <t>14,96; 20,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,0; 20,14</t>
+          <t>12,92; 19,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 9,26</t>
+          <t>6,09; 8,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,94; 15,55</t>
+          <t>9,54; 12,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,84; 18,94</t>
+          <t>9,92; 13,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,56; 14,96</t>
+          <t>11,73; 15,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>10,99%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,95</t>
+          <t>3,55; 6,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,46</t>
+          <t>5,22; 8,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 6,88</t>
+          <t>4,34; 7,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,89; 14,39</t>
+          <t>2,67; 7,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 11,9</t>
+          <t>9,6; 13,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,22; 19,41</t>
+          <t>13,55; 18,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,67; 20,3</t>
+          <t>11,5; 15,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,09; 20,69</t>
+          <t>16,17; 19,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,29</t>
+          <t>7,0; 9,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,49; 13,08</t>
+          <t>9,77; 12,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,26; 13,06</t>
+          <t>8,32; 11,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,88; 16,59</t>
+          <t>7,4; 12,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,06%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>10,62%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 6,4</t>
+          <t>2,92; 5,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 8,57</t>
+          <t>3,74; 7,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,35</t>
+          <t>4,71; 8,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,27</t>
+          <t>6,56; 10,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,6; 13,78</t>
+          <t>10,04; 14,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,55; 18,24</t>
+          <t>12,47; 17,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,5; 15,89</t>
+          <t>11,6; 16,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,21; 19,93</t>
+          <t>6,44; 16,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,0; 9,55</t>
+          <t>6,85; 9,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,77; 12,71</t>
+          <t>8,7; 12,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,32; 11,18</t>
+          <t>8,54; 11,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>10,81; 13,73</t>
+          <t>6,79; 12,7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>14,29%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,98</t>
+          <t>3,78; 6,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,78</t>
+          <t>5,94; 9,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,29</t>
+          <t>5,96; 9,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 11,08</t>
+          <t>8,5; 12,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,04; 14,88</t>
+          <t>9,57; 13,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,47; 17,76</t>
+          <t>13,87; 18,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,6; 16,81</t>
+          <t>13,85; 18,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,88; 17,46</t>
+          <t>14,44; 20,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 9,86</t>
+          <t>7,18; 9,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,7; 12,07</t>
+          <t>10,59; 13,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,54; 11,81</t>
+          <t>10,68; 13,6</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,22; 13,67</t>
+          <t>12,44; 15,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>12,33%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 6,48</t>
+          <t>4,14; 5,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,94; 9,81</t>
+          <t>5,7; 7,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,54</t>
+          <t>5,51; 7,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 12,36</t>
+          <t>6,34; 9,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,57; 13,51</t>
+          <t>10,14; 12,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,87; 18,27</t>
+          <t>14,5; 16,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,85; 18,74</t>
+          <t>14,11; 16,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,93; 21,71</t>
+          <t>13,6; 17,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 9,78</t>
+          <t>7,44; 8,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,59; 13,55</t>
+          <t>10,42; 11,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,68; 13,6</t>
+          <t>10,04; 11,57</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,51; 16,57</t>
+          <t>10,72; 13,34</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,91%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,64%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,27%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>8,87%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>11,15%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>15,59%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>15,19%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>17,37%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>8,08%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>11,2%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>10,82%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>13,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>4,14; 5,72</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,7; 7,59</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,51; 7,17</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>7,88; 9,91</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>10,14; 12,2</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>14,5; 16,94</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>14,11; 16,54</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>15,75; 18,69</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>7,44; 8,81</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>10,42; 11,95</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>10,04; 11,57</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>12,46; 14,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,28</t>
+          <t>3,9; 7,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 8,81</t>
+          <t>4,88; 8,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,23</t>
+          <t>3,83; 7,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,66</t>
+          <t>8,18; 12,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 11,45</t>
+          <t>7,28; 11,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,04; 18,65</t>
+          <t>13,2; 18,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,96; 20,64</t>
+          <t>14,62; 20,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,92; 19,08</t>
+          <t>13,42; 19,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,09; 8,91</t>
+          <t>6,04; 8,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,54; 12,9</t>
+          <t>9,57; 13,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,92; 13,34</t>
+          <t>9,89; 13,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,73; 15,33</t>
+          <t>11,63; 15,37</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 6,4</t>
+          <t>3,49; 6,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,22; 8,57</t>
+          <t>5,42; 8,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,35</t>
+          <t>4,45; 7,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 7,4</t>
+          <t>3,0; 7,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,6; 13,78</t>
+          <t>9,62; 13,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,55; 18,24</t>
+          <t>13,32; 17,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,5; 15,89</t>
+          <t>11,52; 15,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,17; 19,94</t>
+          <t>16,03; 19,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 9,55</t>
+          <t>7,01; 9,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,77; 12,71</t>
+          <t>9,92; 12,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,32; 11,18</t>
+          <t>8,43; 11,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 12,87</t>
+          <t>7,5; 12,83</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,98</t>
+          <t>2,89; 6,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,78</t>
+          <t>3,65; 7,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 8,29</t>
+          <t>4,64; 8,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,73</t>
+          <t>6,65; 10,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,04; 14,88</t>
+          <t>9,93; 14,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,47; 17,76</t>
+          <t>12,27; 17,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,6; 16,81</t>
+          <t>11,34; 16,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 16,38</t>
+          <t>6,7; 16,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,85; 9,86</t>
+          <t>6,99; 9,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,7; 12,07</t>
+          <t>8,67; 11,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,54; 11,81</t>
+          <t>8,67; 11,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,79; 12,7</t>
+          <t>7,29; 12,67</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 6,48</t>
+          <t>3,87; 6,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 9,81</t>
+          <t>5,93; 9,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 9,54</t>
+          <t>5,9; 9,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,5; 12,39</t>
+          <t>8,43; 12,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,57; 13,51</t>
+          <t>9,72; 13,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,87; 18,27</t>
+          <t>13,63; 18,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,85; 18,74</t>
+          <t>13,82; 18,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,44; 20,14</t>
+          <t>14,43; 20,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 9,78</t>
+          <t>7,26; 9,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 13,55</t>
+          <t>10,6; 13,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,68; 13,6</t>
+          <t>10,58; 13,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,44; 15,76</t>
+          <t>12,47; 15,81</t>
         </is>
       </c>
     </row>
@@ -1284,52 +1285,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 5,72</t>
+          <t>4,21; 5,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 7,59</t>
+          <t>5,81; 7,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 7,17</t>
+          <t>5,51; 7,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,34; 9,33</t>
+          <t>6,53; 9,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,14; 12,2</t>
+          <t>10,1; 12,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,5; 16,94</t>
+          <t>14,42; 16,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,11; 16,54</t>
+          <t>13,98; 16,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,6; 17,92</t>
+          <t>12,89; 17,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 8,81</t>
+          <t>7,45; 8,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,42; 11,95</t>
+          <t>10,43; 12,04</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,72; 13,34</t>
+          <t>10,81; 13,44</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido algún psicofármaco en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>37585</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>45203</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>36392</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>64177</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>63484</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>110760</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>118906</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>121213</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>101069</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>155963</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>155297</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>185390</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27095; 50157</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>34296; 60269</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>25871; 48459</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>51948; 79800</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>50125; 78703</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>92039; 131037</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>98370; 138841</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>97337; 138420</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>83553; 121133</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>134091; 182013</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>133329; 181585</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>158261; 209136</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>47061</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>69634</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>58434</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>64142</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>110792</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>160973</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>141298</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>172290</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>157853</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>230608</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>199732</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>236432</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>33565; 62366</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>55208; 88451</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>45513; 74595</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>35755; 88863</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>93166; 131686</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>137523; 183914</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>120097; 165606</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>153685; 190183</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>135226; 183034</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>203402; 260075</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>174183; 229323</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>161421; 276029</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28982</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>40964</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>47209</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>60568</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>83345</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>115450</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>109260</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>113417</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>112328</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>156414</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>156469</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>173985</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19584; 40730</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27669; 56621</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35252; 62643</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>46880; 76704</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>67906; 100544</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>95322; 137725</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>89007; 129580</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>62508; 154319</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>95293; 133471</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>133066; 182083</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>133881; 181648</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>119392; 207552</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>47397</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>71880</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>70664</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>93715</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>119185</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>167643</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>168868</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>195123</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>166582</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>239522</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>239532</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>288838</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>36472; 60928</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>56157; 90881</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>55271; 85942</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>78176; 112352</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>100908; 143848</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>143412; 192384</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>144262; 195927</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>157979; 220299</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>143743; 192657</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>212053; 272313</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>209564; 270384</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>252021; 319635</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1076</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>719</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1434</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>227680</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>212698</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>282602</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>376807</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>554826</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>538331</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>602042</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>537832</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>782506</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>751029</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>884644</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>137978; 188322</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>198997; 261076</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>187163; 243107</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>225782; 324905</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>341295; 413853</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>513093; 597912</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>495516; 583035</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>478497; 656282</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>495709; 588787</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>728374; 840686</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>696759; 802928</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>775592; 964118</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>